--- a/data/pca/factorExposure/factorExposure_2009-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01632110780047135</v>
+        <v>0.01626923591741621</v>
       </c>
       <c r="C2">
-        <v>0.001339421304113338</v>
+        <v>-0.001001972851899005</v>
       </c>
       <c r="D2">
-        <v>0.007980495737483792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009371578688653065</v>
+      </c>
+      <c r="E2">
+        <v>-0.001520888667565611</v>
+      </c>
+      <c r="F2">
+        <v>0.01229212967169649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09029027916283491</v>
+        <v>0.09225103984681987</v>
       </c>
       <c r="C4">
-        <v>0.01976484002799865</v>
+        <v>-0.01468392574799528</v>
       </c>
       <c r="D4">
-        <v>0.07505042620181247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08178040094817079</v>
+      </c>
+      <c r="E4">
+        <v>-0.02642458179702217</v>
+      </c>
+      <c r="F4">
+        <v>-0.03165640846941364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.485143290237687e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.265959179790391e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.763956851373705e-05</v>
+      </c>
+      <c r="E5">
+        <v>5.11392568459392e-05</v>
+      </c>
+      <c r="F5">
+        <v>-5.068808548937108e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1531679754256198</v>
+        <v>0.161371544575473</v>
       </c>
       <c r="C6">
-        <v>0.02931772563872669</v>
+        <v>-0.02855168176646525</v>
       </c>
       <c r="D6">
-        <v>-0.03655501695941522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02729496648625461</v>
+      </c>
+      <c r="E6">
+        <v>-0.009030686284802874</v>
+      </c>
+      <c r="F6">
+        <v>-0.04062365334595496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06010721740184941</v>
+        <v>0.06192000885051951</v>
       </c>
       <c r="C7">
-        <v>0.001732079954568775</v>
+        <v>0.001638088377362185</v>
       </c>
       <c r="D7">
-        <v>0.04896956364663699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05291904203520458</v>
+      </c>
+      <c r="E7">
+        <v>-0.01271807874953684</v>
+      </c>
+      <c r="F7">
+        <v>-0.04922809134581654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06199371525809774</v>
+        <v>0.0575990764449968</v>
       </c>
       <c r="C8">
-        <v>-0.01068594404676752</v>
+        <v>0.01234487540737564</v>
       </c>
       <c r="D8">
-        <v>0.02703744534826783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03029950443974742</v>
+      </c>
+      <c r="E8">
+        <v>-0.01692182174089201</v>
+      </c>
+      <c r="F8">
+        <v>0.0259080876925799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06983821558421745</v>
+        <v>0.07148445292488116</v>
       </c>
       <c r="C9">
-        <v>0.01613938619654576</v>
+        <v>-0.01045325502966343</v>
       </c>
       <c r="D9">
-        <v>0.07618948217452659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08498505906795485</v>
+      </c>
+      <c r="E9">
+        <v>-0.02367285569549599</v>
+      </c>
+      <c r="F9">
+        <v>-0.04828799309066355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08466001530728717</v>
+        <v>0.08729363602434079</v>
       </c>
       <c r="C10">
-        <v>0.01448933852063708</v>
+        <v>-0.02146438388785049</v>
       </c>
       <c r="D10">
-        <v>-0.1662848711049916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1601487716427272</v>
+      </c>
+      <c r="E10">
+        <v>0.03278857957779183</v>
+      </c>
+      <c r="F10">
+        <v>0.05852039395872019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0909275703332716</v>
+        <v>0.08782612024844565</v>
       </c>
       <c r="C11">
-        <v>0.0173423045532512</v>
+        <v>-0.01136950135618489</v>
       </c>
       <c r="D11">
-        <v>0.1100588769925781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1173922846290051</v>
+      </c>
+      <c r="E11">
+        <v>-0.04738958742170331</v>
+      </c>
+      <c r="F11">
+        <v>-0.02378101902630133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0957630736893456</v>
+        <v>0.0903302810731362</v>
       </c>
       <c r="C12">
-        <v>0.01500145669817479</v>
+        <v>-0.008541065590122363</v>
       </c>
       <c r="D12">
-        <v>0.1166216978826815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319798045875617</v>
+      </c>
+      <c r="E12">
+        <v>-0.04686582291409463</v>
+      </c>
+      <c r="F12">
+        <v>-0.03066310253776124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04439430413733568</v>
+        <v>0.04365627177757107</v>
       </c>
       <c r="C13">
-        <v>0.00626764463986501</v>
+        <v>-0.002511549900937001</v>
       </c>
       <c r="D13">
-        <v>0.04361907596124166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05369089322001285</v>
+      </c>
+      <c r="E13">
+        <v>0.0004137701855506632</v>
+      </c>
+      <c r="F13">
+        <v>-0.004097778478913547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01910206052748896</v>
+        <v>0.02363434097399668</v>
       </c>
       <c r="C14">
-        <v>0.01498896197674023</v>
+        <v>-0.01374090871327056</v>
       </c>
       <c r="D14">
-        <v>0.02931878259280725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03230071332319615</v>
+      </c>
+      <c r="E14">
+        <v>-0.01786234321901297</v>
+      </c>
+      <c r="F14">
+        <v>-0.01253650265809488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03354207525136601</v>
+        <v>0.03371923163936911</v>
       </c>
       <c r="C15">
-        <v>0.007554833032598657</v>
+        <v>-0.005266831751640581</v>
       </c>
       <c r="D15">
-        <v>0.04254630660325617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04640241442221155</v>
+      </c>
+      <c r="E15">
+        <v>-0.007555108094360028</v>
+      </c>
+      <c r="F15">
+        <v>-0.02946355389885058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07451312530427431</v>
+        <v>0.07261540709810627</v>
       </c>
       <c r="C16">
-        <v>0.007491506912688335</v>
+        <v>-0.001541086600369882</v>
       </c>
       <c r="D16">
-        <v>0.1143577607624855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281715331254531</v>
+      </c>
+      <c r="E16">
+        <v>-0.06131550829431195</v>
+      </c>
+      <c r="F16">
+        <v>-0.02698305426602493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0003289405860480549</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003911385982555566</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002356754188246599</v>
+      </c>
+      <c r="E17">
+        <v>-0.001533677048094127</v>
+      </c>
+      <c r="F17">
+        <v>0.002766939561183977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0201127018688608</v>
+        <v>0.04029491843055766</v>
       </c>
       <c r="C18">
-        <v>-0.00268439885083915</v>
+        <v>0.002690416478836271</v>
       </c>
       <c r="D18">
-        <v>0.02331129067761082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01547244386622788</v>
+      </c>
+      <c r="E18">
+        <v>0.00667174136759783</v>
+      </c>
+      <c r="F18">
+        <v>0.009839010002847351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06292268362830572</v>
+        <v>0.06227006976537017</v>
       </c>
       <c r="C20">
-        <v>0.005347728250883053</v>
+        <v>-0.0009511000670919203</v>
       </c>
       <c r="D20">
-        <v>0.06978386567810455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07879750881015417</v>
+      </c>
+      <c r="E20">
+        <v>-0.05717900000856278</v>
+      </c>
+      <c r="F20">
+        <v>-0.02962618647995925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03796131047415879</v>
+        <v>0.04042154860278462</v>
       </c>
       <c r="C21">
-        <v>0.009456188145005671</v>
+        <v>-0.00629539798714588</v>
       </c>
       <c r="D21">
-        <v>0.03419430222596823</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03680145156277401</v>
+      </c>
+      <c r="E21">
+        <v>0.002241406972538211</v>
+      </c>
+      <c r="F21">
+        <v>0.02606511857010801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04083309380272301</v>
+        <v>0.04434231336065455</v>
       </c>
       <c r="C22">
-        <v>0.001797779372436579</v>
+        <v>-0.001015356641638847</v>
       </c>
       <c r="D22">
-        <v>-0.001762268524958234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00751388553190096</v>
+      </c>
+      <c r="E22">
+        <v>-0.03811311690706218</v>
+      </c>
+      <c r="F22">
+        <v>0.04911439801018517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04079565190176424</v>
+        <v>0.04431813049533687</v>
       </c>
       <c r="C23">
-        <v>0.001787319636999064</v>
+        <v>-0.001006265579615023</v>
       </c>
       <c r="D23">
-        <v>-0.001738255989987112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007528268016814738</v>
+      </c>
+      <c r="E23">
+        <v>-0.03829576941250389</v>
+      </c>
+      <c r="F23">
+        <v>0.04908673784091346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08200225272935807</v>
+        <v>0.07861605676683144</v>
       </c>
       <c r="C24">
-        <v>0.008122802773395518</v>
+        <v>-0.002328366286062296</v>
       </c>
       <c r="D24">
-        <v>0.1156094694341471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205496562343132</v>
+      </c>
+      <c r="E24">
+        <v>-0.04943721442614793</v>
+      </c>
+      <c r="F24">
+        <v>-0.02948943396759414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08700791228676838</v>
+        <v>0.08357640041737666</v>
       </c>
       <c r="C25">
-        <v>0.01067539270626615</v>
+        <v>-0.005010458002661088</v>
       </c>
       <c r="D25">
-        <v>0.1013363664305696</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094617111874838</v>
+      </c>
+      <c r="E25">
+        <v>-0.03245420165709093</v>
+      </c>
+      <c r="F25">
+        <v>-0.02687693865574496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05756359143979228</v>
+        <v>0.05973368013822399</v>
       </c>
       <c r="C26">
-        <v>0.01749431086663251</v>
+        <v>-0.01446557674169498</v>
       </c>
       <c r="D26">
-        <v>0.03069505921010133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04347605268116225</v>
+      </c>
+      <c r="E26">
+        <v>-0.02911142311058913</v>
+      </c>
+      <c r="F26">
+        <v>0.008136524122282891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341151295405407</v>
+        <v>0.1422260560227266</v>
       </c>
       <c r="C28">
-        <v>0.0137117975100705</v>
+        <v>-0.02329661458915516</v>
       </c>
       <c r="D28">
-        <v>-0.2674993221793953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2608079462483074</v>
+      </c>
+      <c r="E28">
+        <v>0.06843162008133348</v>
+      </c>
+      <c r="F28">
+        <v>-0.004464729600050916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02507630630967394</v>
+        <v>0.02845506373733074</v>
       </c>
       <c r="C29">
-        <v>0.009554300207390608</v>
+        <v>-0.008799522680925881</v>
       </c>
       <c r="D29">
-        <v>0.02796005857377821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03007621600448509</v>
+      </c>
+      <c r="E29">
+        <v>-0.01252248164603996</v>
+      </c>
+      <c r="F29">
+        <v>0.01365746785083775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06121012025974891</v>
+        <v>0.0586380939270314</v>
       </c>
       <c r="C30">
-        <v>0.008899345082290821</v>
+        <v>-0.00268115202000844</v>
       </c>
       <c r="D30">
-        <v>0.07485695372286985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08727422305377919</v>
+      </c>
+      <c r="E30">
+        <v>-0.01371039101330005</v>
+      </c>
+      <c r="F30">
+        <v>-0.07845631922148608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05044630927071875</v>
+        <v>0.05156389213532745</v>
       </c>
       <c r="C31">
-        <v>0.01727873534156751</v>
+        <v>-0.01613884138532338</v>
       </c>
       <c r="D31">
-        <v>0.02152347763384108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02454244477930579</v>
+      </c>
+      <c r="E31">
+        <v>-0.02848685214077853</v>
+      </c>
+      <c r="F31">
+        <v>0.0002304561546860909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04811156616766709</v>
+        <v>0.05223363250557888</v>
       </c>
       <c r="C32">
-        <v>0.002575228528179103</v>
+        <v>0.00131732962313328</v>
       </c>
       <c r="D32">
-        <v>0.02569994098188719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03423547975385973</v>
+      </c>
+      <c r="E32">
+        <v>-0.03290095914908901</v>
+      </c>
+      <c r="F32">
+        <v>-0.003083009151191238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09020422547569799</v>
+        <v>0.08944132090995215</v>
       </c>
       <c r="C33">
-        <v>0.01322534629345322</v>
+        <v>-0.007067662763808588</v>
       </c>
       <c r="D33">
-        <v>0.08795296172590861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034112815444085</v>
+      </c>
+      <c r="E33">
+        <v>-0.04650278477015057</v>
+      </c>
+      <c r="F33">
+        <v>-0.04328788927234946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06892270217668382</v>
+        <v>0.06757457725515555</v>
       </c>
       <c r="C34">
-        <v>0.01561496805649837</v>
+        <v>-0.0105340809754754</v>
       </c>
       <c r="D34">
-        <v>0.0964578042906028</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093033720650179</v>
+      </c>
+      <c r="E34">
+        <v>-0.03569162335508007</v>
+      </c>
+      <c r="F34">
+        <v>-0.03472456930562241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0249641598915405</v>
+        <v>0.02660916776516921</v>
       </c>
       <c r="C35">
-        <v>0.003756534961034129</v>
+        <v>-0.003029749805251196</v>
       </c>
       <c r="D35">
-        <v>0.008332889893545406</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01222967771276532</v>
+      </c>
+      <c r="E35">
+        <v>-0.0127784793058368</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002529251528540486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02567235402629398</v>
+        <v>0.02789886225315346</v>
       </c>
       <c r="C36">
-        <v>0.007658789896782237</v>
+        <v>-0.006921015713242218</v>
       </c>
       <c r="D36">
-        <v>0.03839023605418612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03889792293314292</v>
+      </c>
+      <c r="E36">
+        <v>-0.01663245137782612</v>
+      </c>
+      <c r="F36">
+        <v>-0.01398869935580708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001439422027918355</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008527777165585274</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002826635078060557</v>
+      </c>
+      <c r="E37">
+        <v>0.000108076551080267</v>
+      </c>
+      <c r="F37">
+        <v>0.001710137108818031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1126242406662439</v>
+        <v>0.1014318082526698</v>
       </c>
       <c r="C39">
-        <v>0.02346826114320722</v>
+        <v>-0.01633562004320024</v>
       </c>
       <c r="D39">
-        <v>0.1476456451106567</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.150764160411072</v>
+      </c>
+      <c r="E39">
+        <v>-0.0591021597834342</v>
+      </c>
+      <c r="F39">
+        <v>-0.02201393255910149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03796984357906409</v>
+        <v>0.04348945373435812</v>
       </c>
       <c r="C40">
-        <v>0.009258563825360057</v>
+        <v>-0.007560714282220497</v>
       </c>
       <c r="D40">
-        <v>0.02284966561024169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03279384093017124</v>
+      </c>
+      <c r="E40">
+        <v>-0.002024632363574943</v>
+      </c>
+      <c r="F40">
+        <v>0.017286312897095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02494814886902889</v>
+        <v>0.02717456225872109</v>
       </c>
       <c r="C41">
-        <v>0.007291574603805724</v>
+        <v>-0.006834214631736286</v>
       </c>
       <c r="D41">
-        <v>0.00983400444885656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01101197399276467</v>
+      </c>
+      <c r="E41">
+        <v>-0.01189688491231081</v>
+      </c>
+      <c r="F41">
+        <v>0.007325792804405219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04204044342161823</v>
+        <v>0.04005915974783145</v>
       </c>
       <c r="C43">
-        <v>0.008224591552022802</v>
+        <v>-0.007688711852128037</v>
       </c>
       <c r="D43">
-        <v>0.0178351419666827</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01912011845886656</v>
+      </c>
+      <c r="E43">
+        <v>-0.02509839441494321</v>
+      </c>
+      <c r="F43">
+        <v>0.01607484560465858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06955699411254231</v>
+        <v>0.07856477538659455</v>
       </c>
       <c r="C44">
-        <v>0.02510565491233493</v>
+        <v>-0.01961293578928418</v>
       </c>
       <c r="D44">
-        <v>0.09794590000138034</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09704800907008469</v>
+      </c>
+      <c r="E44">
+        <v>-0.06211089350239838</v>
+      </c>
+      <c r="F44">
+        <v>-0.1691977135507271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02171191888259327</v>
+        <v>0.02480792615848942</v>
       </c>
       <c r="C46">
-        <v>0.004422709407944292</v>
+        <v>-0.003792652985131071</v>
       </c>
       <c r="D46">
-        <v>0.009120511491268971</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01273366225366263</v>
+      </c>
+      <c r="E46">
+        <v>-0.0271196706736013</v>
+      </c>
+      <c r="F46">
+        <v>0.005830445013165279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05213297001316424</v>
+        <v>0.05172588615430545</v>
       </c>
       <c r="C47">
-        <v>0.004860567845656263</v>
+        <v>-0.004334259859924433</v>
       </c>
       <c r="D47">
-        <v>0.00726967840547808</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01079434105481358</v>
+      </c>
+      <c r="E47">
+        <v>-0.02253309985241</v>
+      </c>
+      <c r="F47">
+        <v>0.03185422988650469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0480605544865926</v>
+        <v>0.050865809002073</v>
       </c>
       <c r="C48">
-        <v>0.004788285768876282</v>
+        <v>-0.002324505322706171</v>
       </c>
       <c r="D48">
-        <v>0.04601531527701697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04981715892390028</v>
+      </c>
+      <c r="E48">
+        <v>0.005046724422560125</v>
+      </c>
+      <c r="F48">
+        <v>-0.0120822531522098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2005436420208926</v>
+        <v>0.1999288061852383</v>
       </c>
       <c r="C49">
-        <v>0.02220205821686596</v>
+        <v>-0.02058758610365141</v>
       </c>
       <c r="D49">
-        <v>-0.01105637770860054</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004628381603509185</v>
+      </c>
+      <c r="E49">
+        <v>-0.0328450752195003</v>
+      </c>
+      <c r="F49">
+        <v>-0.04822353656877051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04968165238850861</v>
+        <v>0.05186749766112196</v>
       </c>
       <c r="C50">
-        <v>0.01324217018789202</v>
+        <v>-0.01177914638266341</v>
       </c>
       <c r="D50">
-        <v>0.02058707655709939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0228982646316689</v>
+      </c>
+      <c r="E50">
+        <v>-0.02940905949450962</v>
+      </c>
+      <c r="F50">
+        <v>-0.009973520060793753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1559360834105162</v>
+        <v>0.1494360285010912</v>
       </c>
       <c r="C52">
-        <v>0.02089073026913315</v>
+        <v>-0.01908727764523071</v>
       </c>
       <c r="D52">
-        <v>0.04410867321369115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04260779848222211</v>
+      </c>
+      <c r="E52">
+        <v>-0.02341623240251698</v>
+      </c>
+      <c r="F52">
+        <v>-0.04351778682401828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749710115502394</v>
+        <v>0.1696814032249226</v>
       </c>
       <c r="C53">
-        <v>0.02138487077157944</v>
+        <v>-0.02196129002738283</v>
       </c>
       <c r="D53">
-        <v>0.006865358846492579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005909040894892551</v>
+      </c>
+      <c r="E53">
+        <v>-0.03103813988668909</v>
+      </c>
+      <c r="F53">
+        <v>-0.07624891981155073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01620391040435431</v>
+        <v>0.01953717716308695</v>
       </c>
       <c r="C54">
-        <v>0.01229122800126438</v>
+        <v>-0.01092812939061628</v>
       </c>
       <c r="D54">
-        <v>0.02816960029812112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03304615891631098</v>
+      </c>
+      <c r="E54">
+        <v>-0.02089544236752068</v>
+      </c>
+      <c r="F54">
+        <v>0.002816187098352398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1177944906048618</v>
+        <v>0.1161121569208649</v>
       </c>
       <c r="C55">
-        <v>0.01892149046715443</v>
+        <v>-0.01911158812511455</v>
       </c>
       <c r="D55">
-        <v>0.006661737627069545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008466359721737621</v>
+      </c>
+      <c r="E55">
+        <v>-0.02627023132765238</v>
+      </c>
+      <c r="F55">
+        <v>-0.04755289417426091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1811470550635509</v>
+        <v>0.1761045908455058</v>
       </c>
       <c r="C56">
-        <v>0.01944563660995419</v>
+        <v>-0.01998512111064945</v>
       </c>
       <c r="D56">
-        <v>-0.00349757831573212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002938718657623763</v>
+      </c>
+      <c r="E56">
+        <v>-0.03305135653293505</v>
+      </c>
+      <c r="F56">
+        <v>-0.05579683864576173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04930018868382337</v>
+        <v>0.04688571175566908</v>
       </c>
       <c r="C58">
-        <v>0.005798193309472747</v>
+        <v>-0.0003829851803040327</v>
       </c>
       <c r="D58">
-        <v>0.06363594393926508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07576665667675769</v>
+      </c>
+      <c r="E58">
+        <v>-0.0365956650862767</v>
+      </c>
+      <c r="F58">
+        <v>0.03704816162886745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1619603655649816</v>
+        <v>0.1669068674321258</v>
       </c>
       <c r="C59">
-        <v>0.01536069345832901</v>
+        <v>-0.0236030898629455</v>
       </c>
       <c r="D59">
-        <v>-0.2243864648188983</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180066174879355</v>
+      </c>
+      <c r="E59">
+        <v>0.0492297816293935</v>
+      </c>
+      <c r="F59">
+        <v>0.03928301951109434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2385923873910612</v>
+        <v>0.230286298939068</v>
       </c>
       <c r="C60">
-        <v>0.003068367530270206</v>
+        <v>-0.0001725636351402471</v>
       </c>
       <c r="D60">
-        <v>0.03875705378961886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03898975113456893</v>
+      </c>
+      <c r="E60">
+        <v>-0.006294860931668079</v>
+      </c>
+      <c r="F60">
+        <v>-0.004629424713339288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08363143991837482</v>
+        <v>0.0773203589155492</v>
       </c>
       <c r="C61">
-        <v>0.017276317617878</v>
+        <v>-0.0115573933837012</v>
       </c>
       <c r="D61">
-        <v>0.10794066717584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1158342983903064</v>
+      </c>
+      <c r="E61">
+        <v>-0.03779924468321788</v>
+      </c>
+      <c r="F61">
+        <v>-0.008377805960303603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726365505770532</v>
+        <v>0.1692671616827011</v>
       </c>
       <c r="C62">
-        <v>0.02354117317021639</v>
+        <v>-0.02281558813585026</v>
       </c>
       <c r="D62">
-        <v>0.000591572504181933</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005730723571851038</v>
+      </c>
+      <c r="E62">
+        <v>-0.03437140188154431</v>
+      </c>
+      <c r="F62">
+        <v>-0.04211265263962909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04158093721375424</v>
+        <v>0.04562423431248467</v>
       </c>
       <c r="C63">
-        <v>0.005535794658401057</v>
+        <v>-0.001725115764605655</v>
       </c>
       <c r="D63">
-        <v>0.04831599264498941</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06044444264192652</v>
+      </c>
+      <c r="E63">
+        <v>-0.02411826596043465</v>
+      </c>
+      <c r="F63">
+        <v>-0.0009121782197675876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1133066143215372</v>
+        <v>0.110899281192768</v>
       </c>
       <c r="C64">
-        <v>0.01593594450829125</v>
+        <v>-0.01282653132899199</v>
       </c>
       <c r="D64">
-        <v>0.03204682109302708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04224829463939152</v>
+      </c>
+      <c r="E64">
+        <v>-0.02348887437820988</v>
+      </c>
+      <c r="F64">
+        <v>-0.02517850546391042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1438263221757685</v>
+        <v>0.1516667984071547</v>
       </c>
       <c r="C65">
-        <v>0.03539621090522373</v>
+        <v>-0.03565367519842912</v>
       </c>
       <c r="D65">
-        <v>-0.06035151220293921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04703271439238144</v>
+      </c>
+      <c r="E65">
+        <v>-0.006059564045987551</v>
+      </c>
+      <c r="F65">
+        <v>-0.0370639775756643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1357369788083123</v>
+        <v>0.1220520071630281</v>
       </c>
       <c r="C66">
-        <v>0.02194896661229126</v>
+        <v>-0.0147828250799462</v>
       </c>
       <c r="D66">
-        <v>0.1281536822415908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1390985535555438</v>
+      </c>
+      <c r="E66">
+        <v>-0.06423825560763385</v>
+      </c>
+      <c r="F66">
+        <v>-0.02772033028835569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0630642489764671</v>
+        <v>0.05563892248094969</v>
       </c>
       <c r="C67">
-        <v>0.0059933081132766</v>
+        <v>-0.00335498299267806</v>
       </c>
       <c r="D67">
-        <v>0.0544644970392896</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05746259585195145</v>
+      </c>
+      <c r="E67">
+        <v>-0.01829275059188256</v>
+      </c>
+      <c r="F67">
+        <v>0.03413631371018914</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070060022973527</v>
+        <v>0.1168161937475656</v>
       </c>
       <c r="C68">
-        <v>0.02354804017175751</v>
+        <v>-0.0340338375445793</v>
       </c>
       <c r="D68">
-        <v>-0.2652974766078239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261156044121177</v>
+      </c>
+      <c r="E68">
+        <v>0.08851220370852392</v>
+      </c>
+      <c r="F68">
+        <v>-2.82332676332207e-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03985918289490596</v>
+        <v>0.03858150834659737</v>
       </c>
       <c r="C69">
-        <v>0.002280131061751171</v>
+        <v>-0.00141086679541874</v>
       </c>
       <c r="D69">
-        <v>0.006170174301386521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008057405261950455</v>
+      </c>
+      <c r="E69">
+        <v>-0.02385816583716902</v>
+      </c>
+      <c r="F69">
+        <v>0.0008064929266134895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06571638448438058</v>
+        <v>0.06706049182320446</v>
       </c>
       <c r="C70">
-        <v>-0.02437166257587786</v>
+        <v>0.02678566267883549</v>
       </c>
       <c r="D70">
-        <v>0.01529285059859719</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02578077577079133</v>
+      </c>
+      <c r="E70">
+        <v>0.03070212626405024</v>
+      </c>
+      <c r="F70">
+        <v>0.181919843152034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261346421137496</v>
+        <v>0.1367175168236208</v>
       </c>
       <c r="C71">
-        <v>0.02818838270668218</v>
+        <v>-0.03868937597646325</v>
       </c>
       <c r="D71">
-        <v>-0.2820444303016173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2712561846466149</v>
+      </c>
+      <c r="E71">
+        <v>0.09792026197367187</v>
+      </c>
+      <c r="F71">
+        <v>-0.005689894933841789</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1378534039618947</v>
+        <v>0.144615908364148</v>
       </c>
       <c r="C72">
-        <v>0.02818473174518224</v>
+        <v>-0.02865459148216403</v>
       </c>
       <c r="D72">
-        <v>0.001600193118597831</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004839574618019412</v>
+      </c>
+      <c r="E72">
+        <v>-0.03810231034394734</v>
+      </c>
+      <c r="F72">
+        <v>-0.02827243469636973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2046439823648608</v>
+        <v>0.2034853425469574</v>
       </c>
       <c r="C73">
-        <v>0.01738040626894951</v>
+        <v>-0.01368319710687532</v>
       </c>
       <c r="D73">
-        <v>0.007881257563104172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01857118255836981</v>
+      </c>
+      <c r="E73">
+        <v>-0.06635769284464599</v>
+      </c>
+      <c r="F73">
+        <v>-0.04218284846185363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09278233788964048</v>
+        <v>0.09411217141485402</v>
       </c>
       <c r="C74">
-        <v>0.01457737435814288</v>
+        <v>-0.01412237648837754</v>
       </c>
       <c r="D74">
-        <v>0.01568443547148859</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01711949593330553</v>
+      </c>
+      <c r="E74">
+        <v>-0.04414815316676873</v>
+      </c>
+      <c r="F74">
+        <v>-0.05289924716287357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342232290817041</v>
+        <v>0.1262974190777633</v>
       </c>
       <c r="C75">
-        <v>0.03120276672703176</v>
+        <v>-0.02980203889342562</v>
       </c>
       <c r="D75">
-        <v>0.02572595244546954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0290843500798698</v>
+      </c>
+      <c r="E75">
+        <v>-0.05701245330320066</v>
+      </c>
+      <c r="F75">
+        <v>-0.02220803967818677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08210163523752118</v>
+        <v>0.09063701651024285</v>
       </c>
       <c r="C77">
-        <v>0.01484035301960738</v>
+        <v>-0.008728142046458982</v>
       </c>
       <c r="D77">
-        <v>0.1051496489337134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146187598099028</v>
+      </c>
+      <c r="E77">
+        <v>-0.0451570835700992</v>
+      </c>
+      <c r="F77">
+        <v>-0.03369933065957956</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09937389360563813</v>
+        <v>0.1009396540712737</v>
       </c>
       <c r="C78">
-        <v>0.04432102205168918</v>
+        <v>-0.03921201618026256</v>
       </c>
       <c r="D78">
-        <v>0.1110404372988648</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1106941069481293</v>
+      </c>
+      <c r="E78">
+        <v>-0.0757083731218243</v>
+      </c>
+      <c r="F78">
+        <v>-0.05269842435503028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1656533046499145</v>
+        <v>0.1633476441014783</v>
       </c>
       <c r="C79">
-        <v>0.02606944638394593</v>
+        <v>-0.02504558078508437</v>
       </c>
       <c r="D79">
-        <v>0.00835701425973885</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01272897212376071</v>
+      </c>
+      <c r="E79">
+        <v>-0.0447414993110903</v>
+      </c>
+      <c r="F79">
+        <v>-0.01390416819540571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08105106814060042</v>
+        <v>0.0796306679646544</v>
       </c>
       <c r="C80">
-        <v>0.0017676078639806</v>
+        <v>0.0004260838624841147</v>
       </c>
       <c r="D80">
-        <v>0.05718139946617794</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05345859335758939</v>
+      </c>
+      <c r="E80">
+        <v>-0.03239255852114133</v>
+      </c>
+      <c r="F80">
+        <v>0.02579668910482693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1206384814410839</v>
+        <v>0.1167253122494913</v>
       </c>
       <c r="C81">
-        <v>0.03313003465537103</v>
+        <v>-0.03319545108462515</v>
       </c>
       <c r="D81">
-        <v>0.01411944084951715</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01372094702296599</v>
+      </c>
+      <c r="E81">
+        <v>-0.05456830001649195</v>
+      </c>
+      <c r="F81">
+        <v>-0.01885823544063055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1664619228383839</v>
+        <v>0.1659526019916176</v>
       </c>
       <c r="C82">
-        <v>0.02652090580427781</v>
+        <v>-0.02745412474788842</v>
       </c>
       <c r="D82">
-        <v>0.008909699279344084</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00282079326207918</v>
+      </c>
+      <c r="E82">
+        <v>-0.02913789294860022</v>
+      </c>
+      <c r="F82">
+        <v>-0.08309058164248315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06355501166792311</v>
+        <v>0.05748554750825055</v>
       </c>
       <c r="C83">
-        <v>0.005696577164351124</v>
+        <v>-0.003463658439653851</v>
       </c>
       <c r="D83">
-        <v>0.04297274029799797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04751927700126082</v>
+      </c>
+      <c r="E83">
+        <v>-0.001134211558639702</v>
+      </c>
+      <c r="F83">
+        <v>0.0357469634576269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06226755465508359</v>
+        <v>0.05691517026295279</v>
       </c>
       <c r="C84">
-        <v>0.01413765125842</v>
+        <v>-0.01109294233699586</v>
       </c>
       <c r="D84">
-        <v>0.06951498860234666</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07203492439407416</v>
+      </c>
+      <c r="E84">
+        <v>-0.01394001546703227</v>
+      </c>
+      <c r="F84">
+        <v>-0.01550936934345881</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1389991635560938</v>
+        <v>0.1347894568336972</v>
       </c>
       <c r="C85">
-        <v>0.03017473338017253</v>
+        <v>-0.02991108405427979</v>
       </c>
       <c r="D85">
-        <v>0.008637871573982717</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009791195868762538</v>
+      </c>
+      <c r="E85">
+        <v>-0.03689539706818213</v>
+      </c>
+      <c r="F85">
+        <v>-0.04867142626010132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1010996006453535</v>
+        <v>0.09377038461868357</v>
       </c>
       <c r="C86">
-        <v>-0.002584673454287882</v>
+        <v>0.005400119353541004</v>
       </c>
       <c r="D86">
-        <v>0.01226798015765777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0530388725572714</v>
+      </c>
+      <c r="E86">
+        <v>-0.2237826225161946</v>
+      </c>
+      <c r="F86">
+        <v>0.8977060824779964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09695457852956516</v>
+        <v>0.09288825130922992</v>
       </c>
       <c r="C87">
-        <v>0.02848350183261573</v>
+        <v>-0.01971534113227472</v>
       </c>
       <c r="D87">
-        <v>0.07365121335490131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09535286206807692</v>
+      </c>
+      <c r="E87">
+        <v>0.05212663027942698</v>
+      </c>
+      <c r="F87">
+        <v>-0.05070405517877519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06189269212286347</v>
+        <v>0.06092452210708107</v>
       </c>
       <c r="C88">
-        <v>0.005420707263106364</v>
+        <v>-0.002838731565333372</v>
       </c>
       <c r="D88">
-        <v>0.05184613745193373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05025105203833367</v>
+      </c>
+      <c r="E88">
+        <v>-0.02403716619291529</v>
+      </c>
+      <c r="F88">
+        <v>-0.01511709362225385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1179854145250331</v>
+        <v>0.1265659049254614</v>
       </c>
       <c r="C89">
-        <v>0.004747161200700722</v>
+        <v>-0.01393117207887366</v>
       </c>
       <c r="D89">
-        <v>-0.2468150514973222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2439932591000416</v>
+      </c>
+      <c r="E89">
+        <v>0.09247783236162997</v>
+      </c>
+      <c r="F89">
+        <v>0.008039407143476195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1386535975720543</v>
+        <v>0.1520329449290544</v>
       </c>
       <c r="C90">
-        <v>0.02421948692723311</v>
+        <v>-0.03544049504766868</v>
       </c>
       <c r="D90">
-        <v>-0.2664902332166429</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683940943451746</v>
+      </c>
+      <c r="E90">
+        <v>0.1138396333885177</v>
+      </c>
+      <c r="F90">
+        <v>0.009975448621952437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1214686459245316</v>
+        <v>0.1205832505882615</v>
       </c>
       <c r="C91">
-        <v>0.02085917295184377</v>
+        <v>-0.02149233473733213</v>
       </c>
       <c r="D91">
-        <v>-0.0177790905754758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01662195933272214</v>
+      </c>
+      <c r="E91">
+        <v>-0.05418853438533659</v>
+      </c>
+      <c r="F91">
+        <v>0.001036981911367735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1397635730259607</v>
+        <v>0.1460543596141527</v>
       </c>
       <c r="C92">
-        <v>0.01512427923617478</v>
+        <v>-0.02688224886495171</v>
       </c>
       <c r="D92">
-        <v>-0.298512350607241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2947235912199437</v>
+      </c>
+      <c r="E92">
+        <v>0.1031404590404335</v>
+      </c>
+      <c r="F92">
+        <v>0.01924845070807987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1406009899428274</v>
+        <v>0.1527720950231346</v>
       </c>
       <c r="C93">
-        <v>0.02050742742123389</v>
+        <v>-0.03042567609814182</v>
       </c>
       <c r="D93">
-        <v>-0.2678038777458034</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2644945355538487</v>
+      </c>
+      <c r="E93">
+        <v>0.07618606416432527</v>
+      </c>
+      <c r="F93">
+        <v>-0.001623445048025669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344158910575974</v>
+        <v>0.1268830516330297</v>
       </c>
       <c r="C94">
-        <v>0.02774341291279981</v>
+        <v>-0.02598627799235478</v>
       </c>
       <c r="D94">
-        <v>0.03913037635801624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04017089974852341</v>
+      </c>
+      <c r="E94">
+        <v>-0.05712675964504645</v>
+      </c>
+      <c r="F94">
+        <v>-0.03336672660024746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.125171525763685</v>
+        <v>0.1281766552823265</v>
       </c>
       <c r="C95">
-        <v>0.009937557715710969</v>
+        <v>-0.004214800612728134</v>
       </c>
       <c r="D95">
-        <v>0.08768639075768875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09815473970329551</v>
+      </c>
+      <c r="E95">
+        <v>-0.05465089084208466</v>
+      </c>
+      <c r="F95">
+        <v>-0.002048322728145408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1241583278693391</v>
+        <v>0.1186250467151608</v>
       </c>
       <c r="C96">
-        <v>-0.9865321620676293</v>
+        <v>0.9860812141120042</v>
       </c>
       <c r="D96">
-        <v>-0.01551985523457923</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05196136376667377</v>
+      </c>
+      <c r="E96">
+        <v>-0.05181239205157316</v>
+      </c>
+      <c r="F96">
+        <v>-0.04236016302962139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1957501893749285</v>
+        <v>0.1968647191458109</v>
       </c>
       <c r="C97">
-        <v>-0.003716514456241075</v>
+        <v>0.004375682042357359</v>
       </c>
       <c r="D97">
-        <v>-0.0161907801900289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0211629673295037</v>
+      </c>
+      <c r="E97">
+        <v>-0.0244927003201197</v>
+      </c>
+      <c r="F97">
+        <v>0.1191350222045883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1982075758803454</v>
+        <v>0.2046573941710478</v>
       </c>
       <c r="C98">
-        <v>0.01180889588110089</v>
+        <v>-0.008051206542224449</v>
       </c>
       <c r="D98">
-        <v>0.01055290351564089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01555294765192235</v>
+      </c>
+      <c r="E98">
+        <v>0.07578356006190894</v>
+      </c>
+      <c r="F98">
+        <v>0.09240714439464467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05545162829130008</v>
+        <v>0.05541782912517122</v>
       </c>
       <c r="C99">
-        <v>-0.001751472656626922</v>
+        <v>0.003904150066607445</v>
       </c>
       <c r="D99">
-        <v>0.02972849145929466</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03837406386685575</v>
+      </c>
+      <c r="E99">
+        <v>-0.0213463713930225</v>
+      </c>
+      <c r="F99">
+        <v>-0.00387495074838655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1433762626037813</v>
+        <v>0.1309654499985326</v>
       </c>
       <c r="C100">
-        <v>-0.03809976122882981</v>
+        <v>0.05080701943763746</v>
       </c>
       <c r="D100">
-        <v>0.393111599885292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3526997022318947</v>
+      </c>
+      <c r="E100">
+        <v>0.8852816783237657</v>
+      </c>
+      <c r="F100">
+        <v>0.1486922883793997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02503743147992914</v>
+        <v>0.02849796466637095</v>
       </c>
       <c r="C101">
-        <v>0.009483027791080505</v>
+        <v>-0.008838363891737831</v>
       </c>
       <c r="D101">
-        <v>0.02749653339700571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02967938522154096</v>
+      </c>
+      <c r="E101">
+        <v>-0.01198275170254528</v>
+      </c>
+      <c r="F101">
+        <v>0.01493049037843421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
